--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>エラー番号</t>
   </si>
@@ -98,6 +98,147 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>船渡し</t>
+    <rPh sb="0" eb="1">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>羊とキャベツがいる岸に船がいない場合、ゲームオーバーになるか？</t>
+    <rPh sb="0" eb="1">
+      <t>ヒツジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>知らん</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面が暗くなるだけだった</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モノをクリックしたとき、小さくなりながら船座標までに移動するか？</t>
+    <rPh sb="12" eb="13">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1番のバグののち右側のオオカミを戻すと左に垂直移動しながら消えた</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゲームクリアとゲームオーバー条件が問題文から読み取れるか？</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリア条件しかねーぞはげ</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>校閲不足</t>
+    <rPh sb="0" eb="2">
+      <t>コウエツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海賊</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -106,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +291,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,6 +412,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -270,7 +432,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,11 +469,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -633,16 +802,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -655,55 +824,55 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
@@ -719,64 +888,106 @@
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -787,7 +998,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
@@ -806,7 +1017,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
@@ -825,7 +1036,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
@@ -844,7 +1055,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
@@ -863,7 +1074,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
@@ -882,7 +1093,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -901,7 +1112,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
@@ -920,7 +1131,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
@@ -939,7 +1150,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
@@ -958,7 +1169,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
@@ -977,7 +1188,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
@@ -996,7 +1207,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="3"/>
@@ -1015,7 +1226,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="3"/>
@@ -1034,7 +1245,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
@@ -1053,7 +1264,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="3"/>
@@ -1072,7 +1283,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="3"/>
@@ -1091,7 +1302,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>エラー番号</t>
   </si>
@@ -239,6 +239,33 @@
     <t>海賊</t>
     <rPh sb="0" eb="2">
       <t>カイゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引数を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モーダルに引き数がない</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -448,6 +475,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,13 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -789,10 +816,10 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="7.21875" customWidth="1"/>
     <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.21875" customWidth="1"/>
@@ -802,16 +829,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -824,55 +851,55 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +915,8 @@
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -904,19 +931,27 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="4">
+        <v>42754</v>
+      </c>
+      <c r="K9" s="4">
+        <v>42754</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
@@ -937,10 +972,10 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -970,19 +1005,19 @@
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3" t="s">
@@ -998,7 +1033,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
@@ -1017,7 +1052,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
@@ -1036,7 +1071,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
@@ -1055,7 +1090,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
@@ -1074,7 +1109,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
@@ -1093,7 +1128,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -1112,7 +1147,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
@@ -1131,7 +1166,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
@@ -1150,7 +1185,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
@@ -1169,7 +1204,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
@@ -1188,7 +1223,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
@@ -1207,7 +1242,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="3"/>
@@ -1226,7 +1261,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="3"/>
@@ -1245,7 +1280,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
@@ -1264,7 +1299,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="3"/>
@@ -1283,7 +1318,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="3"/>
@@ -1302,7 +1337,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>エラー番号</t>
   </si>
@@ -135,13 +135,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>知らん</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
@@ -175,31 +168,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1番のバグののち右側のオオカミを戻すと左に垂直移動しながら消えた</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>スイチョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ゲームクリアとゲームオーバー条件が問題文から読み取れるか？</t>
     <rPh sb="14" eb="16">
       <t>ジョウケン</t>
@@ -266,6 +234,58 @@
     <t>中川</t>
     <rPh sb="0" eb="2">
       <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>座標設定ミス</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右上側のモノを戻すと左に垂直移動しながら消えた</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -807,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -823,7 +843,7 @@
     <col min="9" max="9" width="7.21875" customWidth="1"/>
     <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.33203125" customWidth="1"/>
   </cols>
@@ -935,16 +955,16 @@
         <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="J9" s="4">
         <v>42754</v>
@@ -952,10 +972,14 @@
       <c r="K9" s="4">
         <v>42754</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="4">
+        <v>42754</v>
+      </c>
       <c r="N9" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -973,13 +997,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
@@ -988,7 +1012,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1003,16 +1027,16 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1021,7 +1045,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3"/>
     </row>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>エラー番号</t>
   </si>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1009,10 +1009,14 @@
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4">
+        <v>42754</v>
+      </c>
       <c r="N10" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O10" s="3"/>
     </row>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>エラー番号</t>
   </si>
@@ -286,6 +286,53 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IEマップ下の文字見づらい</t>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PC・タブ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字、画像などの視認性は良いか？　</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シニンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -827,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1057,12 +1104,24 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9456"/>
+    <workbookView xWindow="480" yWindow="144" windowWidth="22056" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>エラー番号</t>
   </si>
@@ -334,6 +334,55 @@
     <rPh sb="12" eb="13">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像が指定通り表示されているか？</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大砲の位置が画面の中央辺りに表示されています</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CSSハック？</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -874,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1135,12 +1184,24 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>エラー番号</t>
   </si>
@@ -131,13 +131,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -924,7 +917,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L11" sqref="L11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1051,16 +1044,16 @@
         <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="J9" s="4">
         <v>42754</v>
@@ -1069,13 +1062,13 @@
         <v>42754</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4">
         <v>42754</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -1093,13 +1086,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
@@ -1112,7 +1105,7 @@
         <v>42754</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1127,25 +1120,29 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="4">
+        <v>42754</v>
+      </c>
       <c r="N11" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -1157,19 +1154,19 @@
         <v>42754</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
@@ -1188,19 +1185,19 @@
         <v>42754</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>エラー番号</t>
   </si>
@@ -376,6 +376,13 @@
   </si>
   <si>
     <t>CSSハック？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -917,7 +924,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:N11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1101,18 @@
       <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4">
+        <v>42754</v>
+      </c>
+      <c r="K10" s="4">
+        <v>42754</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1131,10 +1146,18 @@
       <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4">
+        <v>42754</v>
+      </c>
+      <c r="K11" s="4">
+        <v>42754</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>18</v>
       </c>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>エラー番号</t>
   </si>
@@ -382,6 +382,43 @@
     <t>テキスト修正</t>
     <rPh sb="4" eb="6">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CSSハックでbottom変える力技</t>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -924,7 +961,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1237,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -1222,13 +1259,27 @@
       <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="4">
+        <v>42755</v>
+      </c>
+      <c r="K13" s="4">
+        <v>42755</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="4">
+        <v>42755</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>エラー番号</t>
   </si>
@@ -419,6 +419,49 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>瀬戸</t>
+    <rPh sb="0" eb="2">
+      <t>セト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回転</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動画再生したままウィンドウを閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウを閉じても動画が再生され続ける</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -960,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1286,11 +1329,21 @@
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="4">
+        <v>42755</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="22056" windowHeight="9396"/>
+    <workbookView xWindow="480" yWindow="204" windowWidth="22056" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>エラー番号</t>
   </si>
@@ -462,6 +462,56 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動画は再生、停止できるか？</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定？</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウ外をクリックすると、動画は停止せず、再生したままになる。</t>
+    <rPh sb="9" eb="10">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1003,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1358,12 +1408,24 @@
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="4">
+        <v>42755</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>エラー番号</t>
   </si>
@@ -512,6 +512,56 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フラグが無いときに、強制的に動画表示されているか？</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定ミス？</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたん・ふつう・むずかしいをクリアした後に強制表示される。</t>
+    <rPh sb="20" eb="21">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1053,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1439,12 +1489,24 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>エラー番号</t>
   </si>
@@ -564,6 +564,27 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>瀬戸</t>
+  </si>
+  <si>
+    <t>わらしべ</t>
+  </si>
+  <si>
+    <t>モーダルウィンドウ</t>
+  </si>
+  <si>
+    <t>chromeモーダルウィンドウの問題文が表示されていない</t>
+  </si>
+  <si>
+    <t>宝探し</t>
+  </si>
+  <si>
+    <t>リセット・やり直し</t>
+  </si>
+  <si>
+    <t>chromeリセット・やり直しを押してもクリック判定が復活しない</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1520,11 +1541,21 @@
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -1539,11 +1570,21 @@
       <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>エラー番号</t>
   </si>
@@ -585,13 +585,79 @@
   </si>
   <si>
     <t>chromeリセット・やり直しを押してもクリック判定が復活しない</t>
+  </si>
+  <si>
+    <t>宝　動画モーダルの表示がおかしい</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ビューポート修正必要　☆の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>z-index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示の修正</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>宝探し</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +708,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -776,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +898,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,7 +1207,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1599,12 +1681,24 @@
       <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
@@ -1618,12 +1712,24 @@
       <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>エラー番号</t>
   </si>
@@ -650,6 +650,23 @@
   </si>
   <si>
     <t>CSS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -878,6 +895,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1206,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1228,16 +1245,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1250,55 +1267,55 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="14" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1314,8 +1331,8 @@
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1583,9 +1600,15 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="4">
+        <v>42759</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1614,9 +1637,15 @@
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="4">
+        <v>42759</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1724,7 +1753,7 @@
       <c r="E20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="5" t="s">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>エラー番号</t>
   </si>
@@ -666,6 +666,66 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cssの変更で修正</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>縦横比を変更してもviewモーダルが表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>タテヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上の内容</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1223,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1759,25 +1819,51 @@
       <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="3"/>
+      <c r="H20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4">
+        <v>42759</v>
+      </c>
+      <c r="K20" s="4">
+        <v>42759</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>エラー番号</t>
   </si>
@@ -726,6 +726,23 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1284,7 +1301,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1732,9 +1749,15 @@
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1761,9 +1784,15 @@
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>エラー番号</t>
   </si>
@@ -726,6 +726,23 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1301,7 +1318,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1821,9 +1838,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>エラー番号</t>
   </si>
@@ -747,19 +747,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>佐藤</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>確認済み</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
+    <t>瀬戸</t>
+    <rPh sb="0" eb="2">
+      <t>セト</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1318,7 +1308,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1660,12 +1650,24 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="4">
+        <v>42758</v>
+      </c>
+      <c r="K14" s="4">
+        <v>42758</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1838,15 +1840,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="4">
-        <v>42760</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>エラー番号</t>
   </si>
@@ -750,6 +750,39 @@
     <t>瀬戸</t>
     <rPh sb="0" eb="2">
       <t>セト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像表示位置</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像表示位置がおかしい</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cssハック関連</t>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1308,7 +1341,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1925,12 +1958,24 @@
       <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="4">
+        <v>42759</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>エラー番号</t>
   </si>
@@ -783,6 +783,13 @@
     <t>cssハック関連</t>
     <rPh sb="6" eb="8">
       <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>瀬戸</t>
+    <rPh sb="0" eb="2">
+      <t>セト</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1340,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1946,12 +1953,24 @@
         <v>75</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="4">
+        <v>42759</v>
+      </c>
+      <c r="K21" s="4">
+        <v>42759</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="4">
+        <v>42760</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">

--- a/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
+++ b/docment/テスト項目関連/エラー処理表_logicalgames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>エラー番号</t>
   </si>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1880,9 +1880,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4">
+        <v>42766</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1996,12 +2002,24 @@
         <v>90</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="4">
+        <v>42762</v>
+      </c>
+      <c r="K22" s="4">
+        <v>42762</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="4">
+        <v>42766</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
